--- a/JobFinder_Specs.xlsx
+++ b/JobFinder_Specs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JobSeeker" sheetId="4" r:id="rId1"/>
     <sheet name="Employer" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PostJob" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="189">
   <si>
     <t>Login Information</t>
   </si>
@@ -309,13 +309,313 @@
   </si>
   <si>
     <t>Professional or Personal</t>
+  </si>
+  <si>
+    <t>Employers</t>
+  </si>
+  <si>
+    <t>Company Site (numbers of employees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Profile </t>
+  </si>
+  <si>
+    <t>Company Logo</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Contact person's position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone </t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Post Job</t>
+  </si>
+  <si>
+    <t>1/ Select Job Template</t>
+  </si>
+  <si>
+    <t>2/ Job Creation</t>
+  </si>
+  <si>
+    <t>Job Information</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Job Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Job Level</t>
+  </si>
+  <si>
+    <t>New Grad/ Entry  Level/Internship, Experienced (Non_manager), Team Leader/ Supervisor, Manager, Manager (salary from $1,000+), Director, CEO, Vice President, President</t>
+  </si>
+  <si>
+    <t>Full_Time Permanent, Full_Time Temporary, Part_Time Permanent, Part_Time Temporary, Contractor, Consultant, Internship, Other</t>
+  </si>
+  <si>
+    <t>Salary Range</t>
+  </si>
+  <si>
+    <t>Specified ( minimun/ Maximun), Competitive, Negotiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Minimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Maximun</t>
+  </si>
+  <si>
+    <t>Job Location</t>
+  </si>
+  <si>
+    <t>Work Locations</t>
+  </si>
+  <si>
+    <t>You can choose up to 03 locations - no extra fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Select work locations</t>
+  </si>
+  <si>
+    <t>Your selection(s)</t>
+  </si>
+  <si>
+    <t>Job Category 1.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>You can choose up to 03 categories- no extra fee</t>
+  </si>
+  <si>
+    <t>Extra Visibility</t>
+  </si>
+  <si>
+    <t>No extra Visibility on my job ads/Bold and red on my job ads</t>
+  </si>
+  <si>
+    <t>Extra Priority</t>
+  </si>
+  <si>
+    <t>Top Level Job (1 week)/ Top Level Job (2 weeks)/ Top Level Job (3 weeks)/ Top Level Job (4 weeks)</t>
+  </si>
+  <si>
+    <t>Extra Services</t>
+  </si>
+  <si>
+    <t>Top Job Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Top Jobs - Highlight jobs on homepage</t>
+  </si>
+  <si>
+    <t>$105/1 job/ 5 days</t>
+  </si>
+  <si>
+    <t>Company Branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Show log in this job</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>3/ Job Description</t>
+  </si>
+  <si>
+    <t>Job Description Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Category</t>
+  </si>
+  <si>
+    <t>Please choose the category of your job, e.g. Accounting/ Finance, IT Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Job Title</t>
+  </si>
+  <si>
+    <t>Please choose a title under this category, e.g. Chief Accountant, Software Engineer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Your suggested job description</t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>4/ Job Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Years of experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Minimun careee level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Minimun education level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    General Requirement</t>
+  </si>
+  <si>
+    <t>Limit of 10,000 characters</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Proficiency</t>
+  </si>
+  <si>
+    <t>Beginner/ Intermediate/  Advanced/ Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Required</t>
+  </si>
+  <si>
+    <t>Computer Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Skill Group</t>
+  </si>
+  <si>
+    <t>Desktop Applications/Database/ Programming Languages/ Networking/ Operating Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Skill </t>
+  </si>
+  <si>
+    <t>Beginner/ Intermediate/  Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Years of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Skill</t>
+  </si>
+  <si>
+    <t>Professional Selling Skills/ Customer Service Skills/ Negotiation Skills ...</t>
+  </si>
+  <si>
+    <t>5/ Contact Information</t>
+  </si>
+  <si>
+    <t>Job Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Company Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Company Size</t>
+  </si>
+  <si>
+    <t>(Number of employees) Less than 10/ 10-24/ 25-99/ 100-499/ 500- 999/ 1000- 4,999/ 5,000-9,999/ 10,000-19,999/ 20,000-49,999/ Over 50,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Company website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Company address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Contact name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Preferred language for received applications</t>
+  </si>
+  <si>
+    <t>Vietnamese, English, French, Japanese, Chinese, Korean, Italian, Spanish,N/A</t>
+  </si>
+  <si>
+    <t>Billing Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Customer Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Contact personal position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Billing email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Province/ City</t>
+  </si>
+  <si>
+    <t>Please select province/ city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tax code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Method of payment</t>
+  </si>
+  <si>
+    <t>Bank Transfer/ Cash/ Credit Card</t>
+  </si>
+  <si>
+    <t>Confirmation email</t>
+  </si>
+  <si>
+    <t>Click here to receive Conformation email for posting this job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +653,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -523,6 +831,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,7 +1150,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -1451,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,19 +1785,693 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JobFinder_Specs.xlsx
+++ b/JobFinder_Specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobSeeker" sheetId="4" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>Employers</t>
   </si>
   <si>
-    <t>Company Site (numbers of employees)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Company Profile </t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>Click here to receive Conformation email for posting this job</t>
+  </si>
+  <si>
+    <t>Company Size (numbers of employees)</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,19 +1832,19 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8"/>
     </row>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="8"/>
     </row>
@@ -1874,37 +1874,37 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8"/>
     </row>
@@ -1923,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1943,46 +1943,46 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,254 +1990,254 @@
         <v>60</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="8"/>
     </row>
@@ -2249,23 +2249,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="8"/>
     </row>
@@ -2277,198 +2277,198 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/JobFinder_Specs.xlsx
+++ b/JobFinder_Specs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="Employer" sheetId="2" r:id="rId2"/>
     <sheet name="PostJob" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -614,8 +614,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,7 +935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -970,7 +969,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E90"/>
   <sheetViews>
@@ -1154,7 +1152,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
@@ -1163,7 +1161,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1195,101 +1193,101 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -1297,49 +1295,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
@@ -1347,25 +1345,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
@@ -1373,49 +1371,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
@@ -1431,25 +1429,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
@@ -1465,19 +1463,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -1493,19 +1491,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
         <v>44</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
         <v>45</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
         <v>51</v>
       </c>
@@ -1529,43 +1527,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="12" t="s">
         <v>68</v>
       </c>
@@ -1613,19 +1611,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="12" t="s">
         <v>71</v>
       </c>
@@ -1633,19 +1631,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="16" t="s">
         <v>74</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="17" t="s">
         <v>76</v>
       </c>
@@ -1661,19 +1659,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="16" t="s">
         <v>74</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="16" t="s">
         <v>76</v>
       </c>
@@ -1689,19 +1687,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="16" t="s">
         <v>74</v>
       </c>
@@ -1709,55 +1707,55 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1">
       <c r="A90" s="18" t="s">
         <v>87</v>
       </c>
@@ -1773,20 +1771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1794,121 +1792,121 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
       <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
@@ -1920,20 +1918,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1941,43 +1939,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="21" t="s">
         <v>105</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>108</v>
       </c>
@@ -2001,25 +1999,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>113</v>
       </c>
@@ -2027,25 +2025,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
         <v>120</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2069,19 +2067,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26" t="s">
         <v>126</v>
       </c>
@@ -2089,13 +2087,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
         <v>129</v>
       </c>
@@ -2103,19 +2101,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="25" t="s">
         <v>133</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="25" t="s">
         <v>135</v>
       </c>
@@ -2131,49 +2129,49 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="26" t="s">
         <v>143</v>
       </c>
@@ -2181,19 +2179,19 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="26" t="s">
         <v>147</v>
       </c>
@@ -2201,19 +2199,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="26" t="s">
         <v>151</v>
       </c>
@@ -2221,13 +2219,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="26" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="26" t="s">
         <v>147</v>
       </c>
@@ -2235,19 +2233,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="26" t="s">
         <v>156</v>
       </c>
@@ -2255,7 +2253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="26" t="s">
         <v>147</v>
       </c>
@@ -2263,19 +2261,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
         <v>156</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="26" t="s">
         <v>147</v>
       </c>
@@ -2291,31 +2289,31 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="26" t="s">
         <v>161</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="26" t="s">
         <v>162</v>
       </c>
@@ -2331,43 +2329,43 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="26" t="s">
         <v>164</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="26" t="s">
         <v>167</v>
       </c>
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="26" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="21" t="s">
         <v>170</v>
       </c>
@@ -2375,55 +2373,55 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="21" t="s">
         <v>179</v>
       </c>
@@ -2431,31 +2429,31 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="26" t="s">
         <v>182</v>
       </c>
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="26" t="s">
         <v>168</v>
       </c>
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="26" t="s">
         <v>183</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="26" t="s">
         <v>184</v>
       </c>
@@ -2463,7 +2461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1">
       <c r="A81" s="4" t="s">
         <v>186</v>
       </c>
